--- a/Code/Results/Cases/Case_7_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.76439218875499</v>
+        <v>12.50278886278642</v>
       </c>
       <c r="C2">
-        <v>11.56606523700356</v>
+        <v>6.992749135954194</v>
       </c>
       <c r="D2">
-        <v>4.443153649036805</v>
+        <v>4.88588441910048</v>
       </c>
       <c r="E2">
-        <v>12.57084247089807</v>
+        <v>14.61492675661022</v>
       </c>
       <c r="F2">
-        <v>36.44334753215588</v>
+        <v>20.35029906458122</v>
       </c>
       <c r="G2">
-        <v>2.072429535303632</v>
+        <v>2.094381375612493</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.54929301075786</v>
+        <v>11.21408354489604</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.73726079388435</v>
+        <v>14.45712859268065</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.72772084070817</v>
+        <v>16.53498970312587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.51276363379595</v>
+        <v>11.71597864889037</v>
       </c>
       <c r="C3">
-        <v>10.81924598646316</v>
+        <v>6.763122632313786</v>
       </c>
       <c r="D3">
-        <v>4.484658286535183</v>
+        <v>4.776141152431637</v>
       </c>
       <c r="E3">
-        <v>11.83145215176721</v>
+        <v>13.75346111325159</v>
       </c>
       <c r="F3">
-        <v>34.65623645440542</v>
+        <v>19.97101323461252</v>
       </c>
       <c r="G3">
-        <v>2.082679044696739</v>
+        <v>2.099616025063263</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.51108243358821</v>
+        <v>10.6335157861818</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.58569492664982</v>
+        <v>13.53502181301043</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.48402154298771</v>
+        <v>16.46495405769027</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.70448071438218</v>
+        <v>11.20586370300808</v>
       </c>
       <c r="C4">
-        <v>10.33870470909307</v>
+        <v>6.617895634842602</v>
       </c>
       <c r="D4">
-        <v>4.511123861473595</v>
+        <v>4.706951752720348</v>
       </c>
       <c r="E4">
-        <v>11.36825418230616</v>
+        <v>13.21005346831362</v>
       </c>
       <c r="F4">
-        <v>33.54792551232361</v>
+        <v>19.75375879045925</v>
       </c>
       <c r="G4">
-        <v>2.089106155282604</v>
+        <v>2.10292589765265</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.84170823114288</v>
+        <v>10.26023048483862</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.84440826010178</v>
+        <v>12.93927702092429</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.71955540333922</v>
+        <v>16.4364555501889</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.36494127236245</v>
+        <v>10.99119226551972</v>
       </c>
       <c r="C5">
-        <v>10.13728690616908</v>
+        <v>6.557698070364252</v>
       </c>
       <c r="D5">
-        <v>4.522141592893029</v>
+        <v>4.678323660054211</v>
       </c>
       <c r="E5">
-        <v>11.17729728244893</v>
+        <v>12.98518534110726</v>
       </c>
       <c r="F5">
-        <v>33.09389818215564</v>
+        <v>19.66915251967913</v>
       </c>
       <c r="G5">
-        <v>2.091761492840507</v>
+        <v>2.104299428070685</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.56080673444344</v>
+        <v>10.10395511308222</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.53358193249057</v>
+        <v>12.68905011721109</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.40806717264805</v>
+        <v>16.42835727289124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.30794314202446</v>
+        <v>10.95513590520004</v>
       </c>
       <c r="C6">
-        <v>10.10350223963853</v>
+        <v>6.547642458753451</v>
       </c>
       <c r="D6">
-        <v>4.523984768966669</v>
+        <v>4.673544498387321</v>
       </c>
       <c r="E6">
-        <v>11.14546049169867</v>
+        <v>12.94764653031701</v>
       </c>
       <c r="F6">
-        <v>33.01837663754615</v>
+        <v>19.65534051237969</v>
       </c>
       <c r="G6">
-        <v>2.092204669751705</v>
+        <v>2.104529013748006</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.51366974117269</v>
+        <v>10.07775692530598</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.48143739271929</v>
+        <v>12.64704944282433</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.35635527427979</v>
+        <v>16.42722093530993</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.69994289352189</v>
+        <v>11.20299608093122</v>
       </c>
       <c r="C7">
-        <v>10.33601103870249</v>
+        <v>6.617087836219866</v>
       </c>
       <c r="D7">
-        <v>4.511271524863704</v>
+        <v>4.706567387485294</v>
       </c>
       <c r="E7">
-        <v>11.3656875898534</v>
+        <v>13.20703436717397</v>
       </c>
       <c r="F7">
-        <v>33.54181140115652</v>
+        <v>19.75260187592439</v>
       </c>
       <c r="G7">
-        <v>2.089141816109525</v>
+        <v>2.10294432059734</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.83795292274486</v>
+        <v>10.25813963350146</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.84025193526776</v>
+        <v>12.93593258128597</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.71535404709374</v>
+        <v>16.43633227848497</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.34099028781042</v>
+        <v>12.23709750645893</v>
       </c>
       <c r="C8">
-        <v>11.31308343876103</v>
+        <v>6.914480342472857</v>
       </c>
       <c r="D8">
-        <v>4.457251589619129</v>
+        <v>4.848432300318716</v>
       </c>
       <c r="E8">
-        <v>12.31786648495194</v>
+        <v>14.32100663800364</v>
       </c>
       <c r="F8">
-        <v>35.82964155959434</v>
+        <v>20.21627952656495</v>
       </c>
       <c r="G8">
-        <v>2.075937398408755</v>
+        <v>2.096166803753675</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.19787453004609</v>
+        <v>11.0174298934542</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.34721361733932</v>
+        <v>14.14530622594093</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.29919660083148</v>
+        <v>16.50775296839161</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.25097872180558</v>
+        <v>14.05130999361905</v>
       </c>
       <c r="C9">
-        <v>13.05827921818675</v>
+        <v>7.46222659666106</v>
       </c>
       <c r="D9">
-        <v>4.35986883082643</v>
+        <v>5.111430584339357</v>
       </c>
       <c r="E9">
-        <v>14.10948330803594</v>
+        <v>16.40996856315523</v>
       </c>
       <c r="F9">
-        <v>40.21682653665918</v>
+        <v>21.24915306949892</v>
       </c>
       <c r="G9">
-        <v>2.050977354501404</v>
+        <v>2.083605054705328</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.61688772424765</v>
+        <v>12.37078929820752</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.03804910713369</v>
+        <v>16.2838856674696</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.39078741808349</v>
+        <v>16.76857994986862</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.21251108246218</v>
+        <v>15.25545151489555</v>
       </c>
       <c r="C10">
-        <v>14.24254750132739</v>
+        <v>7.841014220201528</v>
       </c>
       <c r="D10">
-        <v>4.294842643769091</v>
+        <v>5.294344791929321</v>
       </c>
       <c r="E10">
-        <v>15.49090721820361</v>
+        <v>18.03107015340864</v>
       </c>
       <c r="F10">
-        <v>43.37164759098591</v>
+        <v>22.08229836903425</v>
       </c>
       <c r="G10">
-        <v>2.033008077147823</v>
+        <v>2.074774312353802</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.25174814621209</v>
+        <v>13.28054271285098</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.86527180062152</v>
+        <v>17.71608534745324</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.64814224981985</v>
+        <v>17.04129357578111</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.06937881435411</v>
+        <v>15.77574018523281</v>
       </c>
       <c r="C11">
-        <v>14.76174529088583</v>
+        <v>8.007883007897039</v>
       </c>
       <c r="D11">
-        <v>4.267058493658238</v>
+        <v>5.375128249116758</v>
       </c>
       <c r="E11">
-        <v>16.13241058718956</v>
+        <v>18.73955173169396</v>
       </c>
       <c r="F11">
-        <v>44.79260628195006</v>
+        <v>22.47713291533141</v>
       </c>
       <c r="G11">
-        <v>2.024861889609677</v>
+        <v>2.070832541009302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.96683614870993</v>
+        <v>13.67590118322393</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.66695577662981</v>
+        <v>18.33829475846337</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.67245269923324</v>
+        <v>17.18446294401418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.38901979231715</v>
+        <v>15.9688512598599</v>
       </c>
       <c r="C12">
-        <v>14.95571139085837</v>
+        <v>8.070269278846</v>
       </c>
       <c r="D12">
-        <v>4.256836485711272</v>
+        <v>5.405356174242053</v>
       </c>
       <c r="E12">
-        <v>16.37276616063243</v>
+        <v>19.00379377628268</v>
       </c>
       <c r="F12">
-        <v>45.32884849970431</v>
+        <v>22.62889476242681</v>
       </c>
       <c r="G12">
-        <v>2.021776219998725</v>
+        <v>2.06934976348228</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.23372337808627</v>
+        <v>13.82295366748163</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.96656857725371</v>
+        <v>18.56977555966565</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.06010661306733</v>
+        <v>17.24154150759217</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.3203900058842</v>
+        <v>15.92743457256197</v>
       </c>
       <c r="C13">
-        <v>14.91405195376232</v>
+        <v>8.056869280977672</v>
       </c>
       <c r="D13">
-        <v>4.259023926422946</v>
+        <v>5.398862406534727</v>
       </c>
       <c r="E13">
-        <v>16.32111091175493</v>
+        <v>18.94706233552348</v>
       </c>
       <c r="F13">
-        <v>45.21343671128169</v>
+        <v>22.5961106513436</v>
       </c>
       <c r="G13">
-        <v>2.022440899249933</v>
+        <v>2.069668682422651</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.17641422183186</v>
+        <v>13.79140157864106</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.90221321979315</v>
+        <v>18.52010466306925</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.9766254375813</v>
+        <v>17.22911947267179</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.09577119488145</v>
+        <v>15.79170567942723</v>
       </c>
       <c r="C14">
-        <v>14.77775492661568</v>
+        <v>8.013031763557038</v>
       </c>
       <c r="D14">
-        <v>4.266211261099307</v>
+        <v>5.377622470611302</v>
       </c>
       <c r="E14">
-        <v>16.1522346120473</v>
+        <v>18.76137140155565</v>
       </c>
       <c r="F14">
-        <v>44.83675864531689</v>
+        <v>22.48957358726578</v>
       </c>
       <c r="G14">
-        <v>2.024608078082667</v>
+        <v>2.070710359597749</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.988869976548</v>
+        <v>13.68805259366844</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.6916828887034</v>
+        <v>18.35742124634192</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.70434870677846</v>
+        <v>17.18910079831682</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.95756411332445</v>
+        <v>15.70805978806144</v>
       </c>
       <c r="C15">
-        <v>14.69393023028259</v>
+        <v>7.986074878313976</v>
       </c>
       <c r="D15">
-        <v>4.270654039221275</v>
+        <v>5.364564722673619</v>
       </c>
       <c r="E15">
-        <v>16.04846701423694</v>
+        <v>18.64710744257547</v>
       </c>
       <c r="F15">
-        <v>44.60580023372656</v>
+        <v>22.42460830233585</v>
       </c>
       <c r="G15">
-        <v>2.025935264731724</v>
+        <v>2.071349674863102</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.87349251673396</v>
+        <v>13.62440188384649</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.56221919327523</v>
+        <v>18.25723673175561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.5375470741381</v>
+        <v>17.16496446064118</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.15582114561548</v>
+        <v>15.22089980827989</v>
       </c>
       <c r="C16">
-        <v>14.2082372972584</v>
+        <v>7.829997543691753</v>
       </c>
       <c r="D16">
-        <v>4.296697865364643</v>
+        <v>5.289015347646727</v>
       </c>
       <c r="E16">
-        <v>15.44860903111558</v>
+        <v>17.9841963504753</v>
       </c>
       <c r="F16">
-        <v>43.27851310115172</v>
+        <v>22.05681093971611</v>
       </c>
       <c r="G16">
-        <v>2.033540609033995</v>
+        <v>2.075033353243761</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.20445726900673</v>
+        <v>13.25433261395925</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.81230867572212</v>
+        <v>17.67483923787697</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.5811592714229</v>
+        <v>17.03233163219517</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.65507614753636</v>
+        <v>14.91503176983029</v>
       </c>
       <c r="C17">
-        <v>13.90538830407059</v>
+        <v>7.732838712226663</v>
       </c>
       <c r="D17">
-        <v>4.313161638805798</v>
+        <v>5.242036476100572</v>
       </c>
       <c r="E17">
-        <v>15.07575040435791</v>
+        <v>17.5701845241135</v>
       </c>
       <c r="F17">
-        <v>42.46073309913066</v>
+        <v>21.83521185437653</v>
       </c>
       <c r="G17">
-        <v>2.038210138773618</v>
+        <v>2.077311819830281</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.78683979300346</v>
+        <v>13.02256639374312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.34488697609214</v>
+        <v>17.31010389083472</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.99385862284274</v>
+        <v>16.95594380854105</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.36370757925635</v>
+        <v>14.73651512120638</v>
       </c>
       <c r="C18">
-        <v>13.72934785118122</v>
+        <v>7.676444047351298</v>
       </c>
       <c r="D18">
-        <v>4.322797376692838</v>
+        <v>5.214787964326475</v>
       </c>
       <c r="E18">
-        <v>14.85942207703357</v>
+        <v>17.329321401701</v>
       </c>
       <c r="F18">
-        <v>41.98901336806064</v>
+        <v>21.70924587348374</v>
       </c>
       <c r="G18">
-        <v>2.040898907114488</v>
+        <v>2.078629489495878</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.54392920885743</v>
+        <v>12.88751946728003</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.07324030811041</v>
+        <v>17.09755419993557</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.65580304117526</v>
+        <v>16.91379972507094</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.2644717963494</v>
+        <v>14.67562654972974</v>
       </c>
       <c r="C19">
-        <v>13.66942122546438</v>
+        <v>7.657262644335456</v>
       </c>
       <c r="D19">
-        <v>4.326087303857726</v>
+        <v>5.20552347175262</v>
       </c>
       <c r="E19">
-        <v>14.78584848604656</v>
+        <v>17.24729618947866</v>
       </c>
       <c r="F19">
-        <v>41.82906059332422</v>
+        <v>21.66685317229956</v>
       </c>
       <c r="G19">
-        <v>2.041809929169506</v>
+        <v>2.07907688677666</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.46121266829813</v>
+        <v>12.84149606357579</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.98077693030723</v>
+        <v>17.02511165921069</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.54129651567347</v>
+        <v>16.89983468458089</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70872656750947</v>
+        <v>14.94785966209918</v>
       </c>
       <c r="C20">
-        <v>13.93781741158127</v>
+        <v>7.743234535993985</v>
       </c>
       <c r="D20">
-        <v>4.311391569625528</v>
+        <v>5.247061111573142</v>
       </c>
       <c r="E20">
-        <v>15.11563359198205</v>
+        <v>17.61453896706736</v>
       </c>
       <c r="F20">
-        <v>42.54792631240695</v>
+        <v>21.8586472737585</v>
       </c>
       <c r="G20">
-        <v>2.037712784753241</v>
+        <v>2.077068539245364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.83157469673367</v>
+        <v>13.04741854556842</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.39493249934519</v>
+        <v>17.34921607507563</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.05640352911951</v>
+        <v>16.96388909072256</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.1618762113523</v>
+        <v>15.83167833763559</v>
       </c>
       <c r="C21">
-        <v>14.81785894807227</v>
+        <v>8.025929845831039</v>
       </c>
       <c r="D21">
-        <v>4.264091677152218</v>
+        <v>5.383871113251568</v>
       </c>
       <c r="E21">
-        <v>16.20190508840668</v>
+        <v>18.81602206683014</v>
       </c>
       <c r="F21">
-        <v>44.94744599342334</v>
+        <v>22.52080535408509</v>
       </c>
       <c r="G21">
-        <v>2.023971591772749</v>
+        <v>2.070404133414554</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.04406029280911</v>
+        <v>13.71848089154614</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.75362602240925</v>
+        <v>18.40531690683357</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.78432766139804</v>
+        <v>17.20077664152349</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.0835481355058</v>
+        <v>16.38653131517395</v>
       </c>
       <c r="C22">
-        <v>15.37770805098048</v>
+        <v>8.205999178704623</v>
       </c>
       <c r="D22">
-        <v>4.234948126007273</v>
+        <v>5.471162841328474</v>
       </c>
       <c r="E22">
-        <v>16.89702928288764</v>
+        <v>19.57775201580552</v>
       </c>
       <c r="F22">
-        <v>46.50510361762935</v>
+        <v>22.96664831818581</v>
       </c>
       <c r="G22">
-        <v>2.014982973943201</v>
+        <v>2.066105686053872</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.81387206989311</v>
+        <v>14.14155262200895</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.61864228084876</v>
+        <v>19.0714721371237</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.9124162625864</v>
+        <v>17.37233737929503</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.59410634985502</v>
+        <v>16.09246486279368</v>
       </c>
       <c r="C23">
-        <v>15.08024535634389</v>
+        <v>8.110327279889299</v>
       </c>
       <c r="D23">
-        <v>4.250324852817639</v>
+        <v>5.424772056154188</v>
       </c>
       <c r="E23">
-        <v>16.52728737718069</v>
+        <v>19.17330992631274</v>
       </c>
       <c r="F23">
-        <v>45.67462195351844</v>
+        <v>22.72750505663375</v>
       </c>
       <c r="G23">
-        <v>2.019782906121624</v>
+        <v>2.068394954963893</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.40500011115709</v>
+        <v>13.91716851030501</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.15896637355227</v>
+        <v>18.71810677223674</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.31037435209348</v>
+        <v>17.27920329886464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.68448208254436</v>
+        <v>14.93302648849778</v>
       </c>
       <c r="C24">
-        <v>13.92316223121671</v>
+        <v>7.738536254335836</v>
       </c>
       <c r="D24">
-        <v>4.312191289835178</v>
+        <v>5.24479021948965</v>
       </c>
       <c r="E24">
-        <v>15.09760854867375</v>
+        <v>17.59449518521359</v>
       </c>
       <c r="F24">
-        <v>42.50851115510671</v>
+        <v>21.84804765081164</v>
       </c>
       <c r="G24">
-        <v>2.037937625080636</v>
+        <v>2.077178502190127</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.81135883605773</v>
+        <v>13.03618849856211</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.37231603306361</v>
+        <v>17.33154236588246</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.02812825908716</v>
+        <v>16.96029151713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.49561831438868</v>
+        <v>13.58326267131849</v>
       </c>
       <c r="C25">
-        <v>12.6038674550126</v>
+        <v>7.318072520031254</v>
       </c>
       <c r="D25">
-        <v>4.385178679125781</v>
+        <v>5.042023521035871</v>
       </c>
       <c r="E25">
-        <v>13.63305401253378</v>
+        <v>15.83966846579612</v>
       </c>
       <c r="F25">
-        <v>39.04182490137321</v>
+        <v>20.95658410415419</v>
       </c>
       <c r="G25">
-        <v>2.057649074255886</v>
+        <v>2.086929878409174</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.98817994507554</v>
+        <v>12.01943172912308</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.33730767430552</v>
+        <v>15.73001226272553</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.55677539908588</v>
+        <v>16.68430152085989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.50278886278642</v>
+        <v>12.66321462581698</v>
       </c>
       <c r="C2">
-        <v>6.992749135954194</v>
+        <v>7.440828333678747</v>
       </c>
       <c r="D2">
-        <v>4.88588441910048</v>
+        <v>5.27795948738589</v>
       </c>
       <c r="E2">
-        <v>14.61492675661022</v>
+        <v>16.36434044060564</v>
       </c>
       <c r="F2">
-        <v>20.35029906458122</v>
+        <v>16.11428306183936</v>
       </c>
       <c r="G2">
-        <v>2.094381375612493</v>
+        <v>19.18829471248515</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.857243551405771</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.274476021808706</v>
       </c>
       <c r="K2">
-        <v>11.21408354489604</v>
+        <v>12.36049294129041</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.45712859268065</v>
+        <v>11.61119167891141</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.53498970312587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.20997951672354</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.08217114177436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.71597864889037</v>
+        <v>11.94647950752717</v>
       </c>
       <c r="C3">
-        <v>6.763122632313786</v>
+        <v>7.142010497409887</v>
       </c>
       <c r="D3">
-        <v>4.776141152431637</v>
+        <v>5.052873465114804</v>
       </c>
       <c r="E3">
-        <v>13.75346111325159</v>
+        <v>15.50463033078982</v>
       </c>
       <c r="F3">
-        <v>19.97101323461252</v>
+        <v>15.87986275486082</v>
       </c>
       <c r="G3">
-        <v>2.099616025063263</v>
+        <v>18.9591698629445</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.662510897974709</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.328199437059801</v>
       </c>
       <c r="K3">
-        <v>10.6335157861818</v>
+        <v>12.51594173133232</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.53502181301043</v>
+        <v>11.06682394381175</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.46495405769027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.40408546681392</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.10574895221339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.20586370300808</v>
+        <v>11.48277871683275</v>
       </c>
       <c r="C4">
-        <v>6.617895634842602</v>
+        <v>6.951778348867112</v>
       </c>
       <c r="D4">
-        <v>4.706951752720348</v>
+        <v>4.908583669859797</v>
       </c>
       <c r="E4">
-        <v>13.21005346831362</v>
+        <v>14.95142302105225</v>
       </c>
       <c r="F4">
-        <v>19.75375879045925</v>
+        <v>15.74657423881128</v>
       </c>
       <c r="G4">
-        <v>2.10292589765265</v>
+        <v>18.83571427293621</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.583048849241657</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.365016556527893</v>
       </c>
       <c r="K4">
-        <v>10.26023048483862</v>
+        <v>12.6185268470668</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.93927702092429</v>
+        <v>10.71756752357932</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.4364555501889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.88414252088176</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.12899580884394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99119226551972</v>
+        <v>11.2879464602278</v>
       </c>
       <c r="C5">
-        <v>6.557698070364252</v>
+        <v>6.872635152068822</v>
       </c>
       <c r="D5">
-        <v>4.678323660054211</v>
+        <v>4.848296050973853</v>
       </c>
       <c r="E5">
-        <v>12.98518534110726</v>
+        <v>14.71973516056109</v>
       </c>
       <c r="F5">
-        <v>19.66915251967913</v>
+        <v>15.69493328746759</v>
       </c>
       <c r="G5">
-        <v>2.104299428070685</v>
+        <v>18.78965383234042</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.635911730048498</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.380955491394532</v>
       </c>
       <c r="K5">
-        <v>10.10395511308222</v>
+        <v>12.6620674420235</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.68905011721109</v>
+        <v>10.57157406411061</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.42835727289124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.66605055901541</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.14059621803068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.95513590520004</v>
+        <v>11.25524257137134</v>
       </c>
       <c r="C6">
-        <v>6.547642458753451</v>
+        <v>6.859397974938483</v>
       </c>
       <c r="D6">
-        <v>4.673544498387321</v>
+        <v>4.838196806100963</v>
       </c>
       <c r="E6">
-        <v>12.94764653031701</v>
+        <v>14.6808900723428</v>
       </c>
       <c r="F6">
-        <v>19.65534051237969</v>
+        <v>15.68651968055819</v>
       </c>
       <c r="G6">
-        <v>2.104529013748006</v>
+        <v>18.78225940078142</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.644758132378809</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.383657865783954</v>
       </c>
       <c r="K6">
-        <v>10.07775692530598</v>
+        <v>12.66940055303769</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.64704944282433</v>
+        <v>10.54711387355636</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.42722093530993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.62946504268272</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.14264865026304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.20299608093122</v>
+        <v>11.4801748039558</v>
       </c>
       <c r="C7">
-        <v>6.617087836219866</v>
+        <v>6.950717454174764</v>
       </c>
       <c r="D7">
-        <v>4.706567387485294</v>
+        <v>4.907776575782559</v>
       </c>
       <c r="E7">
-        <v>13.20703436717397</v>
+        <v>14.94832352950834</v>
       </c>
       <c r="F7">
-        <v>19.75260187592439</v>
+        <v>15.74586696855822</v>
       </c>
       <c r="G7">
-        <v>2.10294432059734</v>
+        <v>18.835076004476</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.583757189254509</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.365227761746299</v>
       </c>
       <c r="K7">
-        <v>10.25813963350146</v>
+        <v>12.61910709512772</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.93593258128597</v>
+        <v>10.71561330426779</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.43633227848497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.8812262453928</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.12914374642344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.23709750645893</v>
+        <v>12.4210232751261</v>
       </c>
       <c r="C8">
-        <v>6.914480342472857</v>
+        <v>7.339241283964161</v>
       </c>
       <c r="D8">
-        <v>4.848432300318716</v>
+        <v>5.201636166319337</v>
       </c>
       <c r="E8">
-        <v>14.32100663800364</v>
+        <v>16.07323657664233</v>
       </c>
       <c r="F8">
-        <v>20.21627952656495</v>
+        <v>16.03124688199225</v>
       </c>
       <c r="G8">
-        <v>2.096166803753675</v>
+        <v>19.10567147517095</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.790988282764326</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.292187823834366</v>
       </c>
       <c r="K8">
-        <v>11.0174298934542</v>
+        <v>12.41257333278444</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.14530622594093</v>
+        <v>11.42666753032254</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.50775296839161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.9373767029893</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.08843349665564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.05130999361905</v>
+        <v>14.07642039484677</v>
       </c>
       <c r="C9">
-        <v>7.46222659666106</v>
+        <v>8.044659459415051</v>
       </c>
       <c r="D9">
-        <v>5.111430584339357</v>
+        <v>5.728082661812158</v>
       </c>
       <c r="E9">
-        <v>16.40996856315523</v>
+        <v>18.07406964089174</v>
       </c>
       <c r="F9">
-        <v>21.24915306949892</v>
+        <v>16.67501516851745</v>
       </c>
       <c r="G9">
-        <v>2.083605054705328</v>
+        <v>19.77592981290238</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.253598008089137</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.180648466709298</v>
       </c>
       <c r="K9">
-        <v>12.37078929820752</v>
+        <v>12.06706292650157</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.2838856674696</v>
+        <v>12.69816901703291</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.76857994986862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.80573102315102</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.08168201306981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.25545151489555</v>
+        <v>15.20786735364655</v>
       </c>
       <c r="C10">
-        <v>7.841014220201528</v>
+        <v>8.532812658455493</v>
       </c>
       <c r="D10">
-        <v>5.294344791929321</v>
+        <v>6.106166604100602</v>
       </c>
       <c r="E10">
-        <v>18.03107015340864</v>
+        <v>18.86905728928583</v>
       </c>
       <c r="F10">
-        <v>22.08229836903425</v>
+        <v>17.09080112446054</v>
       </c>
       <c r="G10">
-        <v>2.074774312353802</v>
+        <v>20.16506886891664</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.55258712113541</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.089530827950961</v>
       </c>
       <c r="K10">
-        <v>13.28054271285098</v>
+        <v>11.79519958700921</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.71608534745324</v>
+        <v>13.57570201200041</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.04129357578111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.78546512623878</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.04733189672652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.77574018523281</v>
+        <v>15.97972002627093</v>
       </c>
       <c r="C11">
-        <v>8.007883007897039</v>
+        <v>8.813957674245607</v>
       </c>
       <c r="D11">
-        <v>5.375128249116758</v>
+        <v>6.473560363332631</v>
       </c>
       <c r="E11">
-        <v>18.73955173169396</v>
+        <v>14.65620146906373</v>
       </c>
       <c r="F11">
-        <v>22.47713291533141</v>
+        <v>16.35803178905734</v>
       </c>
       <c r="G11">
-        <v>2.070832541009302</v>
+        <v>18.707173813237</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.224140217286954</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.790517782945688</v>
       </c>
       <c r="K11">
-        <v>13.67590118322393</v>
+        <v>11.18239408269396</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.33829475846337</v>
+        <v>14.15144096649691</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.18446294401418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.93398729863115</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.36244805744013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.9688512598599</v>
+        <v>16.40651012705464</v>
       </c>
       <c r="C12">
-        <v>8.070269278846</v>
+        <v>8.955483556153222</v>
       </c>
       <c r="D12">
-        <v>5.405356174242053</v>
+        <v>6.710500490983919</v>
       </c>
       <c r="E12">
-        <v>19.00379377628268</v>
+        <v>11.20209676262678</v>
       </c>
       <c r="F12">
-        <v>22.62889476242681</v>
+        <v>15.63333514175337</v>
       </c>
       <c r="G12">
-        <v>2.06934976348228</v>
+        <v>17.36998104767823</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.35922888478112</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.556254349043797</v>
       </c>
       <c r="K12">
-        <v>13.82295366748163</v>
+        <v>10.73369389173741</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56977555966565</v>
+        <v>14.46385721167217</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.24154150759217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.16087875251402</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.78656811200289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.92743457256197</v>
+        <v>16.60582522150948</v>
       </c>
       <c r="C13">
-        <v>8.056869280977672</v>
+        <v>9.000401217505949</v>
       </c>
       <c r="D13">
-        <v>5.398862406534727</v>
+        <v>6.866179016424548</v>
       </c>
       <c r="E13">
-        <v>18.94706233552348</v>
+        <v>8.399160070911405</v>
       </c>
       <c r="F13">
-        <v>22.5961106513436</v>
+        <v>14.85822604061499</v>
       </c>
       <c r="G13">
-        <v>2.069668682422651</v>
+        <v>16.02736843433468</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.618953860079826</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.358437686692366</v>
       </c>
       <c r="K13">
-        <v>13.79140157864106</v>
+        <v>10.38935697748918</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.52010466306925</v>
+        <v>14.59957730095768</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.22911947267179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.29362667959292</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.26011742702115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.79170567942723</v>
+        <v>16.64534911977399</v>
       </c>
       <c r="C14">
-        <v>8.013031763557038</v>
+        <v>8.988721517320132</v>
       </c>
       <c r="D14">
-        <v>5.377622470611302</v>
+        <v>6.940094611514567</v>
       </c>
       <c r="E14">
-        <v>18.76137140155565</v>
+        <v>7.237814186009975</v>
       </c>
       <c r="F14">
-        <v>22.48957358726578</v>
+        <v>14.2901349668252</v>
       </c>
       <c r="G14">
-        <v>2.070710359597749</v>
+        <v>15.08672755581755</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.541387402449633</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.238423574459822</v>
       </c>
       <c r="K14">
-        <v>13.68805259366844</v>
+        <v>10.20293884389016</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.35742124634192</v>
+        <v>14.61634298027512</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.18910079831682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.928236165795996</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.91889230408135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.70805978806144</v>
+        <v>16.60587406749266</v>
       </c>
       <c r="C15">
-        <v>7.986074878313976</v>
+        <v>8.964547026233475</v>
       </c>
       <c r="D15">
-        <v>5.364564722673619</v>
+        <v>6.940437265470941</v>
       </c>
       <c r="E15">
-        <v>18.64710744257547</v>
+        <v>7.114189334835495</v>
       </c>
       <c r="F15">
-        <v>22.42460830233585</v>
+        <v>14.14326232429526</v>
       </c>
       <c r="G15">
-        <v>2.071349674863102</v>
+        <v>14.86095393052262</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.752458981318046</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.217455041271569</v>
       </c>
       <c r="K15">
-        <v>13.62440188384649</v>
+        <v>10.17905234151244</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.25723673175561</v>
+        <v>14.58191851079182</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.16496446064118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.572193169372206</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.84804469916581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.22089980827989</v>
+        <v>16.11836109342026</v>
       </c>
       <c r="C16">
-        <v>7.829997543691753</v>
+        <v>8.754455620289868</v>
       </c>
       <c r="D16">
-        <v>5.289015347646727</v>
+        <v>6.76135405326688</v>
       </c>
       <c r="E16">
-        <v>17.9841963504753</v>
+        <v>7.115938078051363</v>
       </c>
       <c r="F16">
-        <v>22.05681093971611</v>
+        <v>14.09437489369943</v>
       </c>
       <c r="G16">
-        <v>2.075033353243761</v>
+        <v>14.9310316980882</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.48784601769289</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.297499146059859</v>
       </c>
       <c r="K16">
-        <v>13.25433261395925</v>
+        <v>10.37127690158883</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.67483923787697</v>
+        <v>14.20085047966738</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.03233163219517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.406928128530993</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.96945685494444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91503176983029</v>
+        <v>15.71360569401641</v>
       </c>
       <c r="C17">
-        <v>7.732838712226663</v>
+        <v>8.597037294686812</v>
       </c>
       <c r="D17">
-        <v>5.242036476100572</v>
+        <v>6.580297990049607</v>
       </c>
       <c r="E17">
-        <v>17.5701845241135</v>
+        <v>7.545946207394117</v>
       </c>
       <c r="F17">
-        <v>21.83521185437653</v>
+        <v>14.36715216096322</v>
       </c>
       <c r="G17">
-        <v>2.077311819830281</v>
+        <v>15.4914649171279</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.746200226675367</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.422091833998635</v>
       </c>
       <c r="K17">
-        <v>13.02256639374312</v>
+        <v>10.61396339953347</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.31010389083472</v>
+        <v>13.89344809844599</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.95594380854105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.03411379673665</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.24248161228963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.73651512120638</v>
+        <v>15.34194795231819</v>
       </c>
       <c r="C18">
-        <v>7.676444047351298</v>
+        <v>8.47097123121528</v>
       </c>
       <c r="D18">
-        <v>5.214787964326475</v>
+        <v>6.380121487681184</v>
       </c>
       <c r="E18">
-        <v>17.329321401701</v>
+        <v>9.316651765439431</v>
       </c>
       <c r="F18">
-        <v>21.70924587348374</v>
+        <v>14.94022033822487</v>
       </c>
       <c r="G18">
-        <v>2.078629489495878</v>
+        <v>16.53276734496026</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.554406082723053</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.600233720446459</v>
       </c>
       <c r="K18">
-        <v>12.88751946728003</v>
+        <v>10.93838489606416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.09755419993557</v>
+        <v>13.62091175368361</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.91379972507094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.43574990375094</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.679054481625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.67562654972974</v>
+        <v>15.03208260420804</v>
       </c>
       <c r="C19">
-        <v>7.657262644335456</v>
+        <v>8.383239339466165</v>
       </c>
       <c r="D19">
-        <v>5.20552347175262</v>
+        <v>6.183427108045813</v>
       </c>
       <c r="E19">
-        <v>17.24729618947866</v>
+        <v>12.64006657037789</v>
       </c>
       <c r="F19">
-        <v>21.66685317229956</v>
+        <v>15.70651689855494</v>
       </c>
       <c r="G19">
-        <v>2.07907688677666</v>
+        <v>17.88785251564882</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.26119670120507</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.811993467854725</v>
       </c>
       <c r="K19">
-        <v>12.84149606357579</v>
+        <v>11.32329193249299</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.02511165921069</v>
+        <v>13.40272138090365</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.89983468458089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.35357858810583</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.2236609543835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94785966209918</v>
+        <v>14.92050383971061</v>
       </c>
       <c r="C20">
-        <v>7.743234535993985</v>
+        <v>8.407659945794482</v>
       </c>
       <c r="D20">
-        <v>5.247061111573142</v>
+        <v>6.0102777763058</v>
       </c>
       <c r="E20">
-        <v>17.61453896706736</v>
+        <v>18.63966684638368</v>
       </c>
       <c r="F20">
-        <v>21.8586472737585</v>
+        <v>16.97323298591005</v>
       </c>
       <c r="G20">
-        <v>2.077068539245364</v>
+        <v>20.04787264888713</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.473028474041451</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.11066127301287</v>
       </c>
       <c r="K20">
-        <v>13.04741854556842</v>
+        <v>11.86123334345693</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.34921607507563</v>
+        <v>13.35187935477735</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.96388909072256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.52238793624356</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.04940997862746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.83167833763559</v>
+        <v>15.70028384535073</v>
       </c>
       <c r="C21">
-        <v>8.025929845831039</v>
+        <v>8.757978256148755</v>
       </c>
       <c r="D21">
-        <v>5.383871113251568</v>
+        <v>6.25367106409638</v>
       </c>
       <c r="E21">
-        <v>18.81602206683014</v>
+        <v>20.0593193094292</v>
       </c>
       <c r="F21">
-        <v>22.52080535408509</v>
+        <v>17.47452022215588</v>
       </c>
       <c r="G21">
-        <v>2.070404133414554</v>
+        <v>20.67153183737607</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.730986970350085</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.094996193390216</v>
       </c>
       <c r="K21">
-        <v>13.71848089154614</v>
+        <v>11.75742521747779</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.40531690683357</v>
+        <v>13.96493941755549</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.20077664152349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.6484380241553</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.16181742726513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.38653131517395</v>
+        <v>16.20528209596034</v>
       </c>
       <c r="C22">
-        <v>8.205999178704623</v>
+        <v>8.983308438856966</v>
       </c>
       <c r="D22">
-        <v>5.471162841328474</v>
+        <v>6.418610550755595</v>
       </c>
       <c r="E22">
-        <v>19.57775201580552</v>
+        <v>20.68070037699648</v>
       </c>
       <c r="F22">
-        <v>22.96664831818581</v>
+        <v>17.75565165617772</v>
       </c>
       <c r="G22">
-        <v>2.066105686053872</v>
+        <v>20.99735274029798</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.88451631729962</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.073753801061661</v>
       </c>
       <c r="K22">
-        <v>14.14155262200895</v>
+        <v>11.66865414273573</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.0714721371237</v>
+        <v>14.36202612016849</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.37233737929503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.22318355187258</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.20545904163861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.09246486279368</v>
+        <v>15.93772606364294</v>
       </c>
       <c r="C23">
-        <v>8.110327279889299</v>
+        <v>8.863737856572683</v>
       </c>
       <c r="D23">
-        <v>5.424772056154188</v>
+        <v>6.331143992416965</v>
       </c>
       <c r="E23">
-        <v>19.17330992631274</v>
+        <v>20.3512593055795</v>
       </c>
       <c r="F23">
-        <v>22.72750505663375</v>
+        <v>17.60482553398743</v>
       </c>
       <c r="G23">
-        <v>2.068394954963893</v>
+        <v>20.82196141788013</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.802866641594292</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.08467045619245</v>
       </c>
       <c r="K23">
-        <v>13.91716851030501</v>
+        <v>11.7151888681939</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.71810677223674</v>
+        <v>14.15147661648406</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.27920329886464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.91858148673511</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.1811959354854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.93302648849778</v>
+        <v>14.88110629334206</v>
       </c>
       <c r="C24">
-        <v>7.738536254335836</v>
+        <v>8.395838425930993</v>
       </c>
       <c r="D24">
-        <v>5.24479021948965</v>
+        <v>5.987549330489184</v>
       </c>
       <c r="E24">
-        <v>17.59449518521359</v>
+        <v>19.0552858792121</v>
       </c>
       <c r="F24">
-        <v>21.84804765081164</v>
+        <v>17.05096496621138</v>
       </c>
       <c r="G24">
-        <v>2.077178502190127</v>
+        <v>20.19053121618062</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.487114767010202</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.135034754611613</v>
       </c>
       <c r="K24">
-        <v>13.03618849856211</v>
+        <v>11.9093920425499</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.33154236588246</v>
+        <v>13.32382982675432</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.96029151713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.71776998092246</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.11017245795363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.58326267131849</v>
+        <v>13.64913153168601</v>
       </c>
       <c r="C25">
-        <v>7.318072520031254</v>
+        <v>7.86023227204808</v>
       </c>
       <c r="D25">
-        <v>5.042023521035871</v>
+        <v>5.591186064719017</v>
       </c>
       <c r="E25">
-        <v>15.83966846579612</v>
+        <v>17.55522508472037</v>
       </c>
       <c r="F25">
-        <v>20.95658410415419</v>
+        <v>16.49192300750008</v>
       </c>
       <c r="G25">
-        <v>2.086929878409174</v>
+        <v>19.57930171276908</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.13195377268151</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.2072420574818</v>
       </c>
       <c r="K25">
-        <v>12.01943172912308</v>
+        <v>12.15374122238108</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.73001226272553</v>
+        <v>12.36780739915947</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.68430152085989</v>
+        <v>15.32239305509423</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.07519135841611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.66321462581698</v>
+        <v>12.61797495522669</v>
       </c>
       <c r="C2">
-        <v>7.440828333678747</v>
+        <v>7.614075238912157</v>
       </c>
       <c r="D2">
-        <v>5.27795948738589</v>
+        <v>5.334408902582457</v>
       </c>
       <c r="E2">
-        <v>16.36434044060564</v>
+        <v>16.32501464279194</v>
       </c>
       <c r="F2">
-        <v>16.11428306183936</v>
+        <v>15.81879285145564</v>
       </c>
       <c r="G2">
-        <v>19.18829471248515</v>
+        <v>17.95833881524881</v>
       </c>
       <c r="H2">
-        <v>1.857243551405771</v>
+        <v>1.85964004397347</v>
       </c>
       <c r="J2">
-        <v>8.274476021808706</v>
+        <v>8.692061702200204</v>
       </c>
       <c r="K2">
-        <v>12.36049294129041</v>
+        <v>12.06846878079378</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.93259582036541</v>
       </c>
       <c r="M2">
-        <v>11.61119167891141</v>
+        <v>6.926354761781537</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.20997951672354</v>
+        <v>11.65759668689179</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.08217114177436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.25313972104086</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.86764832105448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.94647950752717</v>
+        <v>11.9352136981823</v>
       </c>
       <c r="C3">
-        <v>7.142010497409887</v>
+        <v>7.208509972615452</v>
       </c>
       <c r="D3">
-        <v>5.052873465114804</v>
+        <v>5.090918692560164</v>
       </c>
       <c r="E3">
-        <v>15.50463033078982</v>
+        <v>15.48434041134702</v>
       </c>
       <c r="F3">
-        <v>15.87986275486082</v>
+        <v>15.62579292471719</v>
       </c>
       <c r="G3">
-        <v>18.9591698629445</v>
+        <v>17.81325350023586</v>
       </c>
       <c r="H3">
-        <v>1.662510897974709</v>
+        <v>1.672088505915826</v>
       </c>
       <c r="J3">
-        <v>8.328199437059801</v>
+        <v>8.721897241917977</v>
       </c>
       <c r="K3">
-        <v>12.51594173133232</v>
+        <v>12.23565404853653</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.1207438900209</v>
       </c>
       <c r="M3">
-        <v>11.06682394381175</v>
+        <v>7.006165474622248</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.40408546681392</v>
+        <v>11.10289788254</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.10574895221339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.44393173633152</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.91414647509405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.48277871683275</v>
+        <v>11.49390315309515</v>
       </c>
       <c r="C4">
-        <v>6.951778348867112</v>
+        <v>6.949273521666973</v>
       </c>
       <c r="D4">
-        <v>4.908583669859797</v>
+        <v>4.934802240378533</v>
       </c>
       <c r="E4">
-        <v>14.95142302105225</v>
+        <v>14.94372677975797</v>
       </c>
       <c r="F4">
-        <v>15.74657423881128</v>
+        <v>15.51647509885685</v>
       </c>
       <c r="G4">
-        <v>18.83571427293621</v>
+        <v>17.74248745901834</v>
       </c>
       <c r="H4">
-        <v>1.583048849241657</v>
+        <v>1.568591176243062</v>
       </c>
       <c r="J4">
-        <v>8.365016556527893</v>
+        <v>8.742251184552769</v>
       </c>
       <c r="K4">
-        <v>12.6185268470668</v>
+        <v>12.34374978547976</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.24195525234664</v>
       </c>
       <c r="M4">
-        <v>10.71756752357932</v>
+        <v>7.078123868414514</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.88414252088176</v>
+        <v>10.74713632282446</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.12899580884394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.92185746499905</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.9499876134054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.2879464602278</v>
+        <v>11.30859059739324</v>
       </c>
       <c r="C5">
-        <v>6.872635152068822</v>
+        <v>6.84118484213213</v>
       </c>
       <c r="D5">
-        <v>4.848296050973853</v>
+        <v>4.869570500469728</v>
       </c>
       <c r="E5">
-        <v>14.71973516056109</v>
+        <v>14.71740530336048</v>
       </c>
       <c r="F5">
-        <v>15.69493328746759</v>
+        <v>15.47421423919192</v>
       </c>
       <c r="G5">
-        <v>18.78965383234042</v>
+        <v>17.71809504974885</v>
       </c>
       <c r="H5">
-        <v>1.635911730048498</v>
+        <v>1.619529258877457</v>
       </c>
       <c r="J5">
-        <v>8.380955491394532</v>
+        <v>8.751046498738694</v>
       </c>
       <c r="K5">
-        <v>12.6620674420235</v>
+        <v>12.38913295691014</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.29279285983922</v>
       </c>
       <c r="M5">
-        <v>10.57157406411061</v>
+        <v>7.113015369576016</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.66605055901541</v>
+        <v>10.59846335746862</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.14059621803068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.70287919907809</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.96635710113147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25524257137134</v>
+        <v>11.27749165547305</v>
       </c>
       <c r="C6">
-        <v>6.859397974938483</v>
+        <v>6.82309297072081</v>
       </c>
       <c r="D6">
-        <v>4.838196806100963</v>
+        <v>4.858643017275481</v>
       </c>
       <c r="E6">
-        <v>14.6808900723428</v>
+        <v>14.67946564863275</v>
       </c>
       <c r="F6">
-        <v>15.68651968055819</v>
+        <v>15.46733418887333</v>
       </c>
       <c r="G6">
-        <v>18.78225940078142</v>
+        <v>17.71430823061227</v>
       </c>
       <c r="H6">
-        <v>1.644758132378809</v>
+        <v>1.628054041297745</v>
       </c>
       <c r="J6">
-        <v>8.383657865783954</v>
+        <v>8.752536901239152</v>
       </c>
       <c r="K6">
-        <v>12.66940055303769</v>
+        <v>12.39674834415644</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.30132193240431</v>
       </c>
       <c r="M6">
-        <v>10.54711387355636</v>
+        <v>7.119138965184129</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.62946504268272</v>
+        <v>10.57355690054972</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.14264865026304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.66614564980034</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.96917977565059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.4801748039558</v>
+        <v>11.49196761817817</v>
       </c>
       <c r="C7">
-        <v>6.950717454174764</v>
+        <v>6.943725976668326</v>
       </c>
       <c r="D7">
-        <v>4.907776575782559</v>
+        <v>4.937082639134847</v>
       </c>
       <c r="E7">
-        <v>14.94832352950834</v>
+        <v>14.94042004099972</v>
       </c>
       <c r="F7">
-        <v>15.74586696855822</v>
+        <v>15.50249548477559</v>
       </c>
       <c r="G7">
-        <v>18.835076004476</v>
+        <v>17.81978473961517</v>
       </c>
       <c r="H7">
-        <v>1.583757189254509</v>
+        <v>1.569616159043184</v>
       </c>
       <c r="J7">
-        <v>8.365227761746299</v>
+        <v>8.710923926885279</v>
       </c>
       <c r="K7">
-        <v>12.61910709512772</v>
+        <v>12.33877534990741</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.2373580968563</v>
       </c>
       <c r="M7">
-        <v>10.71561330426779</v>
+        <v>7.075548044910975</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.8812262453928</v>
+        <v>10.74402316564346</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.12914374642344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.91843706911147</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.94112364971377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.4210232751261</v>
+        <v>12.3889363792275</v>
       </c>
       <c r="C8">
-        <v>7.339241283964161</v>
+        <v>7.463506627964053</v>
       </c>
       <c r="D8">
-        <v>5.201636166319337</v>
+        <v>5.261892180785037</v>
       </c>
       <c r="E8">
-        <v>16.07323657664233</v>
+        <v>16.03955745444288</v>
       </c>
       <c r="F8">
-        <v>16.03124688199225</v>
+        <v>15.70670979550859</v>
       </c>
       <c r="G8">
-        <v>19.10567147517095</v>
+        <v>18.16048330931458</v>
       </c>
       <c r="H8">
-        <v>1.790988282764326</v>
+        <v>1.794810784150101</v>
       </c>
       <c r="J8">
-        <v>8.292187823834366</v>
+        <v>8.599609967581344</v>
       </c>
       <c r="K8">
-        <v>12.41257333278444</v>
+        <v>12.10663640733056</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.98066328862474</v>
       </c>
       <c r="M8">
-        <v>11.42666753032254</v>
+        <v>6.936547158515893</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.9373767029893</v>
+        <v>11.46609380439112</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.08843349665564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.97789031393724</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.85218565197402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.07642039484677</v>
+        <v>13.96794807776141</v>
       </c>
       <c r="C9">
-        <v>8.044659459415051</v>
+        <v>8.412588376429385</v>
       </c>
       <c r="D9">
-        <v>5.728082661812158</v>
+        <v>5.832916469321572</v>
       </c>
       <c r="E9">
-        <v>18.07406964089174</v>
+        <v>17.99771045335835</v>
       </c>
       <c r="F9">
-        <v>16.67501516851745</v>
+        <v>16.23016350457672</v>
       </c>
       <c r="G9">
-        <v>19.77592981290238</v>
+        <v>18.69132684142062</v>
       </c>
       <c r="H9">
-        <v>2.253598008089137</v>
+        <v>2.239973906892033</v>
       </c>
       <c r="J9">
-        <v>8.180648466709298</v>
+        <v>8.509072384439392</v>
       </c>
       <c r="K9">
-        <v>12.06706292650157</v>
+        <v>11.7165080479229</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.54122254827749</v>
       </c>
       <c r="M9">
-        <v>12.69816901703291</v>
+        <v>6.864498771811649</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.80573102315102</v>
+        <v>12.76158047825901</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.08168201306981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.85351381815424</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.77187769409639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.20786735364655</v>
+        <v>15.05516351005884</v>
       </c>
       <c r="C10">
-        <v>8.532812658455493</v>
+        <v>9.032098941339159</v>
       </c>
       <c r="D10">
-        <v>6.106166604100602</v>
+        <v>6.254841828990887</v>
       </c>
       <c r="E10">
-        <v>18.86905728928583</v>
+        <v>18.76525354742733</v>
       </c>
       <c r="F10">
-        <v>17.09080112446054</v>
+        <v>16.49091292033142</v>
       </c>
       <c r="G10">
-        <v>20.16506886891664</v>
+        <v>19.42928729583706</v>
       </c>
       <c r="H10">
-        <v>2.55258712113541</v>
+        <v>2.525493591779616</v>
       </c>
       <c r="J10">
-        <v>8.089530827950961</v>
+        <v>8.259217895321283</v>
       </c>
       <c r="K10">
-        <v>11.79519958700921</v>
+        <v>11.38030674690497</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.19420330456726</v>
       </c>
       <c r="M10">
-        <v>13.57570201200041</v>
+        <v>6.858966716254352</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.78546512623878</v>
+        <v>13.64876294172621</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.04733189672652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.83459840785637</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.63287033042782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.97972002627093</v>
+        <v>15.83515523210652</v>
       </c>
       <c r="C11">
-        <v>8.813957674245607</v>
+        <v>9.255006130561778</v>
       </c>
       <c r="D11">
-        <v>6.473560363332631</v>
+        <v>6.655763832389231</v>
       </c>
       <c r="E11">
-        <v>14.65620146906373</v>
+        <v>14.54266891966064</v>
       </c>
       <c r="F11">
-        <v>16.35803178905734</v>
+        <v>15.64997243596581</v>
       </c>
       <c r="G11">
-        <v>18.707173813237</v>
+        <v>18.96891256666431</v>
       </c>
       <c r="H11">
-        <v>3.224140217286954</v>
+        <v>3.198763660777818</v>
       </c>
       <c r="J11">
-        <v>7.790517782945688</v>
+        <v>7.722063770279321</v>
       </c>
       <c r="K11">
-        <v>11.18239408269396</v>
+        <v>10.78437200434999</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.77832204300079</v>
       </c>
       <c r="M11">
-        <v>14.15144096649691</v>
+        <v>6.429160726421681</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.93398729863115</v>
+        <v>14.20750820581227</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.36244805744013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.9726454670211</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.89215986449164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40651012705464</v>
+        <v>16.27616071407571</v>
       </c>
       <c r="C12">
-        <v>8.955483556153222</v>
+        <v>9.330892233417778</v>
       </c>
       <c r="D12">
-        <v>6.710500490983919</v>
+        <v>6.902393795430465</v>
       </c>
       <c r="E12">
-        <v>11.20209676262678</v>
+        <v>11.0809670461515</v>
       </c>
       <c r="F12">
-        <v>15.63333514175337</v>
+        <v>14.91367800675577</v>
       </c>
       <c r="G12">
-        <v>17.36998104767823</v>
+        <v>18.12538997965506</v>
       </c>
       <c r="H12">
-        <v>4.35922888478112</v>
+        <v>4.340206060210037</v>
       </c>
       <c r="J12">
-        <v>7.556254349043797</v>
+        <v>7.464523752599006</v>
       </c>
       <c r="K12">
-        <v>10.73369389173741</v>
+        <v>10.39057247164854</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.53929508403216</v>
       </c>
       <c r="M12">
-        <v>14.46385721167217</v>
+        <v>6.077783855553342</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.16087875251402</v>
+        <v>14.50593501187</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.78656811200289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.19158124973743</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.32992312377642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.60582522150948</v>
+        <v>16.49372413287491</v>
       </c>
       <c r="C13">
-        <v>9.000401217505949</v>
+        <v>9.308568529346097</v>
       </c>
       <c r="D13">
-        <v>6.866179016424548</v>
+        <v>7.042356316246456</v>
       </c>
       <c r="E13">
-        <v>8.399160070911405</v>
+        <v>8.276131571551492</v>
       </c>
       <c r="F13">
-        <v>14.85822604061499</v>
+        <v>14.23112307931549</v>
       </c>
       <c r="G13">
-        <v>16.02736843433468</v>
+        <v>16.72524382771934</v>
       </c>
       <c r="H13">
-        <v>5.618953860079826</v>
+        <v>5.605576471053658</v>
       </c>
       <c r="J13">
-        <v>7.358437686692366</v>
+        <v>7.386944536890357</v>
       </c>
       <c r="K13">
-        <v>10.38935697748918</v>
+        <v>10.13524937355194</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.4044641369484</v>
       </c>
       <c r="M13">
-        <v>14.59957730095768</v>
+        <v>5.786808213700443</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.29362667959292</v>
+        <v>14.63090010450597</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.26011742702115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.3183264772645</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.88736321029661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.64534911977399</v>
+        <v>16.54796925279314</v>
       </c>
       <c r="C14">
-        <v>8.988721517320132</v>
+        <v>9.248228085693459</v>
       </c>
       <c r="D14">
-        <v>6.940094611514567</v>
+        <v>7.093535852545618</v>
       </c>
       <c r="E14">
-        <v>7.237814186009975</v>
+        <v>7.125781746892454</v>
       </c>
       <c r="F14">
-        <v>14.2901349668252</v>
+        <v>13.77253971687205</v>
       </c>
       <c r="G14">
-        <v>15.08672755581755</v>
+        <v>15.50602365151485</v>
       </c>
       <c r="H14">
-        <v>6.541387402449633</v>
+        <v>6.531222352791533</v>
       </c>
       <c r="J14">
-        <v>7.238423574459822</v>
+        <v>7.392611116377366</v>
       </c>
       <c r="K14">
-        <v>10.20293884389016</v>
+        <v>10.01881798423269</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.350087938092754</v>
       </c>
       <c r="M14">
-        <v>14.61634298027512</v>
+        <v>5.618554961292839</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.928236165795996</v>
+        <v>14.64135915823817</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.91889230408135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.949367112844866</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.63101740123918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.60587406749266</v>
+        <v>16.51307257438349</v>
       </c>
       <c r="C15">
-        <v>8.964547026233475</v>
+        <v>9.211319977704607</v>
       </c>
       <c r="D15">
-        <v>6.940437265470941</v>
+        <v>7.083314096283015</v>
       </c>
       <c r="E15">
-        <v>7.114189334835495</v>
+        <v>7.009534860052563</v>
       </c>
       <c r="F15">
-        <v>14.14326232429526</v>
+        <v>13.671063596408</v>
       </c>
       <c r="G15">
-        <v>14.86095393052262</v>
+        <v>15.11508605753714</v>
       </c>
       <c r="H15">
-        <v>6.752458981318046</v>
+        <v>6.743205806341712</v>
       </c>
       <c r="J15">
-        <v>7.217455041271569</v>
+        <v>7.420187266349139</v>
       </c>
       <c r="K15">
-        <v>10.17905234151244</v>
+        <v>10.01509852206715</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.351762008827116</v>
       </c>
       <c r="M15">
-        <v>14.58191851079182</v>
+        <v>5.592147960496455</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.572193169372206</v>
+        <v>14.60601268852925</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.84804469916581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.59280599594557</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.59137851818183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.11836109342026</v>
+        <v>16.03571865088859</v>
       </c>
       <c r="C16">
-        <v>8.754455620289868</v>
+        <v>8.989460316507165</v>
       </c>
       <c r="D16">
-        <v>6.76135405326688</v>
+        <v>6.862392006276306</v>
       </c>
       <c r="E16">
-        <v>7.115938078051363</v>
+        <v>7.033312459011544</v>
       </c>
       <c r="F16">
-        <v>14.09437489369943</v>
+        <v>13.77697108369689</v>
       </c>
       <c r="G16">
-        <v>14.9310316980882</v>
+        <v>14.40537853523912</v>
       </c>
       <c r="H16">
-        <v>6.48784601769289</v>
+        <v>6.481053048639615</v>
       </c>
       <c r="J16">
-        <v>7.297499146059859</v>
+        <v>7.680385350997157</v>
       </c>
       <c r="K16">
-        <v>10.37127690158883</v>
+        <v>10.23820849562584</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.494476952290457</v>
       </c>
       <c r="M16">
-        <v>14.20085047966738</v>
+        <v>5.71754527521573</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.406928128530993</v>
+        <v>14.23024727512224</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.96945685494444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.43095848650472</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.80213906753153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71360569401641</v>
+        <v>15.63182164034859</v>
       </c>
       <c r="C17">
-        <v>8.597037294686812</v>
+        <v>8.843865160801135</v>
       </c>
       <c r="D17">
-        <v>6.580297990049607</v>
+        <v>6.666368713449265</v>
       </c>
       <c r="E17">
-        <v>7.545946207394117</v>
+        <v>7.468907880348278</v>
       </c>
       <c r="F17">
-        <v>14.36715216096322</v>
+        <v>14.09255382553254</v>
       </c>
       <c r="G17">
-        <v>15.4914649171279</v>
+        <v>14.62547036100547</v>
       </c>
       <c r="H17">
-        <v>5.746200226675367</v>
+        <v>5.740055392595765</v>
       </c>
       <c r="J17">
-        <v>7.422091833998635</v>
+        <v>7.878233163097501</v>
       </c>
       <c r="K17">
-        <v>10.61396339953347</v>
+        <v>10.46966586496887</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.644852380235925</v>
       </c>
       <c r="M17">
-        <v>13.89344809844599</v>
+        <v>5.890355214618598</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.03411379673665</v>
+        <v>13.92915950575363</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.24248161228963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.06230460838811</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.09218867317939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.34194795231819</v>
+        <v>15.2516009180877</v>
       </c>
       <c r="C18">
-        <v>8.47097123121528</v>
+        <v>8.758885298295773</v>
       </c>
       <c r="D18">
-        <v>6.380121487681184</v>
+        <v>6.466454679853753</v>
       </c>
       <c r="E18">
-        <v>9.316651765439431</v>
+        <v>9.239047172294217</v>
       </c>
       <c r="F18">
-        <v>14.94022033822487</v>
+        <v>14.64504650333128</v>
       </c>
       <c r="G18">
-        <v>16.53276734496026</v>
+        <v>15.48260150940144</v>
       </c>
       <c r="H18">
-        <v>4.554406082723053</v>
+        <v>4.547235589384329</v>
       </c>
       <c r="J18">
-        <v>7.600233720446459</v>
+        <v>8.071425630297808</v>
       </c>
       <c r="K18">
-        <v>10.93838489606416</v>
+        <v>10.75325511160923</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.83287406419165</v>
       </c>
       <c r="M18">
-        <v>13.62091175368361</v>
+        <v>6.130431790985138</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.43574990375094</v>
+        <v>13.66605719498001</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.679054481625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.46979252897047</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.50396188264149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.03208260420804</v>
+        <v>14.9256208856066</v>
       </c>
       <c r="C19">
-        <v>8.383239339466165</v>
+        <v>8.73513376600734</v>
       </c>
       <c r="D19">
-        <v>6.183427108045813</v>
+        <v>6.279114768140312</v>
       </c>
       <c r="E19">
-        <v>12.64006657037789</v>
+        <v>12.55908404569998</v>
       </c>
       <c r="F19">
-        <v>15.70651689855494</v>
+        <v>15.35250469838555</v>
       </c>
       <c r="G19">
-        <v>17.88785251564882</v>
+        <v>16.72200624695205</v>
       </c>
       <c r="H19">
-        <v>3.26119670120507</v>
+        <v>3.250306637840925</v>
       </c>
       <c r="J19">
-        <v>7.811993467854725</v>
+        <v>8.264082597317394</v>
       </c>
       <c r="K19">
-        <v>11.32329193249299</v>
+        <v>11.07569477201553</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.04815065500317</v>
       </c>
       <c r="M19">
-        <v>13.40272138090365</v>
+        <v>6.421399038402896</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.35357858810583</v>
+        <v>13.45939322469702</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.2236609543835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.39449018945012</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.99725935805159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.92050383971061</v>
+        <v>14.77739546024315</v>
       </c>
       <c r="C20">
-        <v>8.407659945794482</v>
+        <v>8.885371725874153</v>
       </c>
       <c r="D20">
-        <v>6.0102777763058</v>
+        <v>6.137944467291135</v>
       </c>
       <c r="E20">
-        <v>18.63966684638368</v>
+        <v>18.54334126137081</v>
       </c>
       <c r="F20">
-        <v>16.97323298591005</v>
+        <v>16.45886606232275</v>
       </c>
       <c r="G20">
-        <v>20.04787264888713</v>
+        <v>18.95531527369711</v>
       </c>
       <c r="H20">
-        <v>2.473028474041451</v>
+        <v>2.450345091051967</v>
       </c>
       <c r="J20">
-        <v>8.11066127301287</v>
+        <v>8.426357970035593</v>
       </c>
       <c r="K20">
-        <v>11.86123334345693</v>
+        <v>11.48383874507524</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.2938104988122</v>
       </c>
       <c r="M20">
-        <v>13.35187935477735</v>
+        <v>6.869361694070568</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.52238793624356</v>
+        <v>13.42553925192146</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.04940997862746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.5725837323166</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.69505050701962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.70028384535073</v>
+        <v>15.53030867104908</v>
       </c>
       <c r="C21">
-        <v>8.757978256148755</v>
+        <v>9.283091156629974</v>
       </c>
       <c r="D21">
-        <v>6.25367106409638</v>
+        <v>6.465984178867072</v>
       </c>
       <c r="E21">
-        <v>20.0593193094292</v>
+        <v>19.94034878448572</v>
       </c>
       <c r="F21">
-        <v>17.47452022215588</v>
+        <v>16.5941358550577</v>
       </c>
       <c r="G21">
-        <v>20.67153183737607</v>
+        <v>21.23442347518773</v>
       </c>
       <c r="H21">
-        <v>2.730986970350085</v>
+        <v>2.693142870345442</v>
       </c>
       <c r="J21">
-        <v>8.094996193390216</v>
+        <v>7.787175309728242</v>
       </c>
       <c r="K21">
-        <v>11.75742521747779</v>
+        <v>11.20588024970791</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.02233753738144</v>
       </c>
       <c r="M21">
-        <v>13.96493941755549</v>
+        <v>6.871118684761901</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.6484380241553</v>
+        <v>14.03213835764299</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.16181742726513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.69349334553516</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.54242231576321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.20528209596034</v>
+        <v>16.02089337575326</v>
       </c>
       <c r="C22">
-        <v>8.983308438856966</v>
+        <v>9.528855655523197</v>
       </c>
       <c r="D22">
-        <v>6.418610550755595</v>
+        <v>6.687474953491463</v>
       </c>
       <c r="E22">
-        <v>20.68070037699648</v>
+        <v>20.54878721054584</v>
       </c>
       <c r="F22">
-        <v>17.75565165617772</v>
+        <v>16.62466729239744</v>
       </c>
       <c r="G22">
-        <v>20.99735274029798</v>
+        <v>22.75846856659194</v>
       </c>
       <c r="H22">
-        <v>2.88451631729962</v>
+        <v>2.837172366115345</v>
       </c>
       <c r="J22">
-        <v>8.073753801061661</v>
+        <v>7.412352900806277</v>
       </c>
       <c r="K22">
-        <v>11.66865414273573</v>
+        <v>10.99639299604413</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.835148863966877</v>
       </c>
       <c r="M22">
-        <v>14.36202612016849</v>
+        <v>6.857190949561802</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.22318355187258</v>
+        <v>14.42372912228469</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.20545904163861</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.26401546780826</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.40083060121332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.93772606364294</v>
+        <v>15.75961044531404</v>
       </c>
       <c r="C23">
-        <v>8.863737856572683</v>
+        <v>9.407000852286176</v>
       </c>
       <c r="D23">
-        <v>6.331143992416965</v>
+        <v>6.563039174791824</v>
       </c>
       <c r="E23">
-        <v>20.3512593055795</v>
+        <v>20.22623170149881</v>
       </c>
       <c r="F23">
-        <v>17.60482553398743</v>
+        <v>16.63984608938915</v>
       </c>
       <c r="G23">
-        <v>20.82196141788013</v>
+        <v>21.74537536287756</v>
       </c>
       <c r="H23">
-        <v>2.802866641594292</v>
+        <v>2.761105154016148</v>
       </c>
       <c r="J23">
-        <v>8.08467045619245</v>
+        <v>7.656774067568052</v>
       </c>
       <c r="K23">
-        <v>11.7151888681939</v>
+        <v>11.12233341380913</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.942408073107703</v>
       </c>
       <c r="M23">
-        <v>14.15147661648406</v>
+        <v>6.877732464189148</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.91858148673511</v>
+        <v>14.21815933835633</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.1811959354854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.96263652903233</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.49941452046794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88110629334206</v>
+        <v>14.73650616939146</v>
       </c>
       <c r="C24">
-        <v>8.395838425930993</v>
+        <v>8.879545656565142</v>
       </c>
       <c r="D24">
-        <v>5.987549330489184</v>
+        <v>6.11549357466015</v>
       </c>
       <c r="E24">
-        <v>19.0552858792121</v>
+        <v>18.95865226399362</v>
       </c>
       <c r="F24">
-        <v>17.05096496621138</v>
+        <v>16.53268769433712</v>
       </c>
       <c r="G24">
-        <v>20.19053121618062</v>
+        <v>19.07481953106988</v>
       </c>
       <c r="H24">
-        <v>2.487114767010202</v>
+        <v>2.464378874275052</v>
       </c>
       <c r="J24">
-        <v>8.135034754611613</v>
+        <v>8.452491958620703</v>
       </c>
       <c r="K24">
-        <v>11.9093920425499</v>
+        <v>11.52542124414365</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.32276094595126</v>
       </c>
       <c r="M24">
-        <v>13.32382982675432</v>
+        <v>6.90403310147082</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.71776998092246</v>
+        <v>13.39858768963334</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.11017245795363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.76865293459616</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.75167027244467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.64913153168601</v>
+        <v>13.55941897746687</v>
       </c>
       <c r="C25">
-        <v>7.86023227204808</v>
+        <v>8.170651241703114</v>
       </c>
       <c r="D25">
-        <v>5.591186064719017</v>
+        <v>5.680414614003533</v>
       </c>
       <c r="E25">
-        <v>17.55522508472037</v>
+        <v>17.48995124857334</v>
       </c>
       <c r="F25">
-        <v>16.49192300750008</v>
+        <v>16.09870804340464</v>
       </c>
       <c r="G25">
-        <v>19.57930171276908</v>
+        <v>18.42321474934302</v>
       </c>
       <c r="H25">
-        <v>2.13195377268151</v>
+        <v>2.123362107256085</v>
       </c>
       <c r="J25">
-        <v>8.2072420574818</v>
+        <v>8.574850257113914</v>
       </c>
       <c r="K25">
-        <v>12.15374122238108</v>
+        <v>11.82479435676306</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.6612235173586</v>
       </c>
       <c r="M25">
-        <v>12.36780739915947</v>
+        <v>6.869186611164442</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.32239305509423</v>
+        <v>12.42632267489463</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.07519135841611</v>
+        <v>15.36895261398671</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.7993526887473</v>
       </c>
     </row>
   </sheetData>
